--- a/biology/Médecine/Muscle_petit_rond/Muscle_petit_rond.xlsx
+++ b/biology/Médecine/Muscle_petit_rond/Muscle_petit_rond.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle petit rond est un muscle cylindrique postérieur de l'épaule. Avec les muscles infra-épineux, supra-épineux et subscapulaire, il compose la coiffe des rotateurs[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle petit rond est un muscle cylindrique postérieur de l'épaule. Avec les muscles infra-épineux, supra-épineux et subscapulaire, il compose la coiffe des rotateurs.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle petit rond naît le long des deux-tiers supérieurs dorsaux du bord latéral de la scapula dans la fosse infra-épineuse. Il s'attache également sur le fascia infraépineux et sur les fascias qui le séparent des muscles infra-épineux et grand rond.
 </t>
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle petit rond est oblique en haut, en avant et en dehors et parallèle au muscle infra-épineux.
 </t>
@@ -573,9 +589,11 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle petit rond se termine sur la face postérieure du tubercule majeur de l'humérus[1], en arrière du muscle infra-épineux.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle petit rond se termine sur la face postérieure du tubercule majeur de l'humérus, en arrière du muscle infra-épineux.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle petit rond est innervé par le nerf du muscle petit rond, branche du nerf axillaire (racines C5-C6).
 </t>
@@ -635,9 +655,11 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle petit rond est rotateur externe de l'épaule et légèrement adducteur, Il tire et stabilise la tête de l'humérus dans la fosse glénoïde de la scapula. Il est également abaisseur de la tête humérale. Il travaille en synergie avec le muscle infra-épineux[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle petit rond est rotateur externe de l'épaule et légèrement adducteur, Il tire et stabilise la tête de l'humérus dans la fosse glénoïde de la scapula. Il est également abaisseur de la tête humérale. Il travaille en synergie avec le muscle infra-épineux.
 </t>
         </is>
       </c>
